--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138211.7531507681</v>
+        <v>130567.6912967376</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10494200.71426641</v>
+        <v>10494200.71426642</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3473260.830286941</v>
+        <v>3473260.83028694</v>
       </c>
     </row>
     <row r="11">
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="D8" t="n">
-        <v>119.0839105424612</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>119.0839105424612</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>30.70785528783134</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796777</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="V8" t="n">
-        <v>104.8891084057998</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>119.0839105424612</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
     </row>
     <row r="9">
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>77.76273317180785</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>84.32851138425291</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809191</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656963</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="V9" t="n">
-        <v>119.0839105424612</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>104.8891084057991</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>119.0839105424612</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>104.8891084057998</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>119.0839105424612</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>119.0839105424612</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>104.8891084057991</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>213.7416271160865</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -1432,13 +1432,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>159.5724276581761</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1548,7 +1548,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>108.3522384787123</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>190.3929728781322</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>215.7705853303261</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>304.6279919443828</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>75.03117915389093</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>170.3034090720313</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1849,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>331.2104824438414</v>
+        <v>318.4962008704468</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>96.26811891357561</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>16.42126900902136</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2089,13 +2089,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>309.0399702208296</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>157.569637200254</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>143.6160649355499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2247,19 +2247,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>53.19117033386421</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2326,13 +2326,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>164.6551731938299</v>
+        <v>149.6157531058532</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T24" t="n">
         <v>124.8306395731037</v>
@@ -2478,13 +2478,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>53.19117033386421</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>55.96684102370185</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>164.1017117126592</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>25.17873337201464</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2715,22 +2715,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>74.42811009355026</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>77.20378078338659</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>149.6157531058532</v>
+        <v>319.7913763132439</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2952,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>3.585567248576204</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>173.4164943363256</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3043,10 +3043,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>105.5188043066319</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>109.5540470185023</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>186.8329580772602</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>170.3034090720313</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>48.14800738068216</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>139.1118326435694</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>49.34995949258705</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>146.391735625387</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>411.5525851064844</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3663,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>63.62546569681959</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>122.959202683614</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>263.7675240713765</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>31.08909919238758</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>77.46047044386974</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>89.30668535812433</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3982,19 +3982,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>138.3600165643929</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>4.172924056464995</v>
+        <v>139.5121758392958</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>250.1002694948338</v>
+        <v>160.8315268133886</v>
       </c>
       <c r="C8" t="n">
-        <v>250.1002694948338</v>
+        <v>40.54474848767092</v>
       </c>
       <c r="D8" t="n">
-        <v>129.8134911691153</v>
+        <v>40.54474848767092</v>
       </c>
       <c r="E8" t="n">
-        <v>9.526712843396899</v>
+        <v>40.54474848767092</v>
       </c>
       <c r="F8" t="n">
-        <v>9.526712843396899</v>
+        <v>9.526712843396837</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396899</v>
+        <v>9.526712843396837</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396899</v>
+        <v>9.526712843396837</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585579</v>
+        <v>23.57954741585558</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558049</v>
+        <v>55.41632306558007</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318073</v>
+        <v>103.1313969318066</v>
       </c>
       <c r="L8" t="n">
-        <v>162.32616531831</v>
+        <v>162.3261653183089</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590937</v>
+        <v>228.1917507590922</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326589</v>
+        <v>295.123110232657</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336432</v>
+        <v>358.324495033641</v>
       </c>
       <c r="P8" t="n">
-        <v>412.265414745568</v>
+        <v>412.2654147455654</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245024</v>
+        <v>452.7727990244994</v>
       </c>
       <c r="R8" t="n">
-        <v>476.335642169845</v>
+        <v>476.3356421698418</v>
       </c>
       <c r="S8" t="n">
-        <v>476.335642169845</v>
+        <v>401.4050834648239</v>
       </c>
       <c r="T8" t="n">
-        <v>476.335642169845</v>
+        <v>401.4050834648239</v>
       </c>
       <c r="U8" t="n">
-        <v>476.335642169845</v>
+        <v>281.1183051391062</v>
       </c>
       <c r="V8" t="n">
-        <v>370.3870478205522</v>
+        <v>281.1183051391062</v>
       </c>
       <c r="W8" t="n">
-        <v>250.1002694948338</v>
+        <v>281.1183051391062</v>
       </c>
       <c r="X8" t="n">
-        <v>250.1002694948338</v>
+        <v>281.1183051391062</v>
       </c>
       <c r="Y8" t="n">
-        <v>250.1002694948338</v>
+        <v>160.8315268133886</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>296.3970358980966</v>
+        <v>9.526712843396837</v>
       </c>
       <c r="C9" t="n">
-        <v>296.3970358980966</v>
+        <v>9.526712843396837</v>
       </c>
       <c r="D9" t="n">
-        <v>296.3970358980966</v>
+        <v>9.526712843396837</v>
       </c>
       <c r="E9" t="n">
-        <v>217.8488205730382</v>
+        <v>9.526712843396837</v>
       </c>
       <c r="F9" t="n">
-        <v>134.4649821891998</v>
+        <v>9.526712843396837</v>
       </c>
       <c r="G9" t="n">
-        <v>49.28466765965135</v>
+        <v>9.526712843396837</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396899</v>
+        <v>9.526712843396837</v>
       </c>
       <c r="I9" t="n">
-        <v>42.50045791160447</v>
+        <v>16.43678475114676</v>
       </c>
       <c r="J9" t="n">
-        <v>61.46222338483277</v>
+        <v>134.3298561881826</v>
       </c>
       <c r="K9" t="n">
-        <v>93.87090076414879</v>
+        <v>166.7385335674984</v>
       </c>
       <c r="L9" t="n">
-        <v>137.4483669798383</v>
+        <v>210.3159997831876</v>
       </c>
       <c r="M9" t="n">
-        <v>234.2857436973186</v>
+        <v>261.1688474406033</v>
       </c>
       <c r="N9" t="n">
-        <v>352.1788151343552</v>
+        <v>313.36761865814</v>
       </c>
       <c r="O9" t="n">
-        <v>399.930492940688</v>
+        <v>361.1192964644725</v>
       </c>
       <c r="P9" t="n">
-        <v>438.2554242425502</v>
+        <v>399.4442277663345</v>
       </c>
       <c r="Q9" t="n">
-        <v>463.8746258735254</v>
+        <v>425.0634293973096</v>
       </c>
       <c r="R9" t="n">
-        <v>476.335642169845</v>
+        <v>476.3356421698418</v>
       </c>
       <c r="S9" t="n">
-        <v>416.683814223815</v>
+        <v>476.3356421698418</v>
       </c>
       <c r="T9" t="n">
-        <v>416.683814223815</v>
+        <v>476.3356421698418</v>
       </c>
       <c r="U9" t="n">
-        <v>416.683814223815</v>
+        <v>356.0488638441242</v>
       </c>
       <c r="V9" t="n">
-        <v>296.3970358980966</v>
+        <v>235.7620855184065</v>
       </c>
       <c r="W9" t="n">
-        <v>296.3970358980966</v>
+        <v>115.4753071926889</v>
       </c>
       <c r="X9" t="n">
-        <v>296.3970358980966</v>
+        <v>9.526712843396837</v>
       </c>
       <c r="Y9" t="n">
-        <v>296.3970358980966</v>
+        <v>9.526712843396837</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>476.335642169845</v>
+        <v>129.8134911691145</v>
       </c>
       <c r="C10" t="n">
-        <v>476.335642169845</v>
+        <v>129.8134911691145</v>
       </c>
       <c r="D10" t="n">
-        <v>356.0488638441265</v>
+        <v>129.8134911691145</v>
       </c>
       <c r="E10" t="n">
-        <v>356.0488638441265</v>
+        <v>129.8134911691145</v>
       </c>
       <c r="F10" t="n">
-        <v>250.1002694948338</v>
+        <v>129.8134911691145</v>
       </c>
       <c r="G10" t="n">
-        <v>129.8134911691153</v>
+        <v>129.8134911691145</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396899</v>
+        <v>9.526712843396837</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396899</v>
+        <v>9.526712843396837</v>
       </c>
       <c r="J10" t="n">
-        <v>108.002400301115</v>
+        <v>21.42271513642502</v>
       </c>
       <c r="K10" t="n">
-        <v>225.8954717381517</v>
+        <v>61.84104157016365</v>
       </c>
       <c r="L10" t="n">
-        <v>262.1854494398056</v>
+        <v>179.7341130071995</v>
       </c>
       <c r="M10" t="n">
-        <v>288.5610142512607</v>
+        <v>206.1096778186544</v>
       </c>
       <c r="N10" t="n">
-        <v>314.3094270837854</v>
+        <v>324.0027492556903</v>
       </c>
       <c r="O10" t="n">
-        <v>338.0922538360039</v>
+        <v>441.8958206927261</v>
       </c>
       <c r="P10" t="n">
-        <v>358.4425707328083</v>
+        <v>462.2461375895303</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.335642169845</v>
+        <v>476.3356421698418</v>
       </c>
       <c r="R10" t="n">
-        <v>476.335642169845</v>
+        <v>476.3356421698418</v>
       </c>
       <c r="S10" t="n">
-        <v>476.335642169845</v>
+        <v>356.0488638441242</v>
       </c>
       <c r="T10" t="n">
-        <v>476.335642169845</v>
+        <v>356.0488638441242</v>
       </c>
       <c r="U10" t="n">
-        <v>476.335642169845</v>
+        <v>356.0488638441242</v>
       </c>
       <c r="V10" t="n">
-        <v>476.335642169845</v>
+        <v>356.0488638441242</v>
       </c>
       <c r="W10" t="n">
-        <v>476.335642169845</v>
+        <v>356.0488638441242</v>
       </c>
       <c r="X10" t="n">
-        <v>476.335642169845</v>
+        <v>250.1002694948321</v>
       </c>
       <c r="Y10" t="n">
-        <v>476.335642169845</v>
+        <v>129.8134911691145</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1624.755105488881</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C11" t="n">
-        <v>1186.612632672305</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D11" t="n">
-        <v>750.7028478467491</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E11" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F11" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R11" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>1785.939375850675</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W11" t="n">
-        <v>1624.755105488881</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="X11" t="n">
-        <v>1624.755105488881</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="Y11" t="n">
-        <v>1624.755105488881</v>
+        <v>932.3314277761596</v>
       </c>
     </row>
     <row r="12">
@@ -5102,22 +5102,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5126,7 +5126,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
         <v>803.3877032987879</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>927.5506608361497</v>
+        <v>698.5773814739204</v>
       </c>
       <c r="C13" t="n">
-        <v>754.9889493193747</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="D13" t="n">
-        <v>589.1109565208974</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E13" t="n">
-        <v>419.3529527716346</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F13" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180194</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1864.207109321325</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W13" t="n">
-        <v>1592.180704907616</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1346.788950241029</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y13" t="n">
-        <v>1119.369279555137</v>
+        <v>698.5773814739204</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2360.327577447737</v>
+        <v>1100.569113887282</v>
       </c>
       <c r="C14" t="n">
-        <v>1922.18510463116</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="D14" t="n">
-        <v>1486.275319805605</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E14" t="n">
-        <v>1052.5005749639</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F14" t="n">
-        <v>624.6331453731077</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="X14" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="Y14" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.868684372189</v>
       </c>
     </row>
     <row r="15">
@@ -5348,13 +5348,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.291841223631</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C16" t="n">
-        <v>919.7301297068562</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D16" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E16" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>358.0754347909399</v>
+        <v>393.4422361027639</v>
       </c>
       <c r="L16" t="n">
-        <v>481.9462364092378</v>
+        <v>935.5229194890228</v>
       </c>
       <c r="M16" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N16" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O16" t="n">
         <v>2173.32015736263</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
-        <v>2215.901038951972</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U16" t="n">
-        <v>2215.901038951972</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V16" t="n">
-        <v>1928.945530822402</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W16" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X16" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.2588091910869</v>
+        <v>485.3490243655314</v>
       </c>
       <c r="C17" t="n">
-        <v>483.1163363745102</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001355</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2101.256885969251</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V17" t="n">
-        <v>2101.256885969251</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W17" t="n">
-        <v>1766.700843096684</v>
+        <v>1739.077181971475</v>
       </c>
       <c r="X17" t="n">
-        <v>1347.558379675995</v>
+        <v>1319.934718550786</v>
       </c>
       <c r="Y17" t="n">
-        <v>1347.558379675995</v>
+        <v>911.6485948504392</v>
       </c>
     </row>
     <row r="18">
@@ -5573,25 +5573,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>743.6816307030854</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C19" t="n">
-        <v>571.1199191863103</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="D19" t="n">
-        <v>405.241926387833</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E19" t="n">
-        <v>405.241926387833</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>228.5348723495892</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G19" t="n">
-        <v>63.79369196210763</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L19" t="n">
-        <v>744.992999204955</v>
+        <v>831.5726843696448</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O19" t="n">
         <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,7 +5700,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
         <v>1973.653814855378</v>
@@ -5709,16 +5709,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774552</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W19" t="n">
-        <v>1408.311674774552</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>1162.919920107964</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y19" t="n">
-        <v>935.5002494220726</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1080.420058888313</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="C20" t="n">
-        <v>642.2775860717366</v>
+        <v>1622.648043367471</v>
       </c>
       <c r="D20" t="n">
-        <v>206.367801246181</v>
+        <v>1186.738258541916</v>
       </c>
       <c r="E20" t="n">
-        <v>206.367801246181</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F20" t="n">
-        <v>206.367801246181</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
         <v>47.20655154895474</v>
@@ -5749,16 +5749,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5785,19 +5785,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V20" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W20" t="n">
-        <v>1915.005753073567</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X20" t="n">
-        <v>1915.005753073567</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="Y20" t="n">
-        <v>1506.719629373221</v>
+        <v>2060.790516184048</v>
       </c>
     </row>
     <row r="21">
@@ -5810,16 +5810,16 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
         <v>79.1492015823585</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>745.8267834361247</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C22" t="n">
-        <v>573.2650719193497</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D22" t="n">
-        <v>407.3870791208724</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="E22" t="n">
-        <v>407.3870791208724</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092383</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X22" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y22" t="n">
-        <v>890.8935156942559</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1087.577165952531</v>
+        <v>1934.02800696283</v>
       </c>
       <c r="C23" t="n">
-        <v>649.4346931359546</v>
+        <v>1495.885534146253</v>
       </c>
       <c r="D23" t="n">
-        <v>213.5249083103991</v>
+        <v>1059.975749320698</v>
       </c>
       <c r="E23" t="n">
-        <v>213.5249083103991</v>
+        <v>626.2010044789927</v>
       </c>
       <c r="F23" t="n">
-        <v>213.5249083103991</v>
+        <v>198.3335748882004</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867029</v>
       </c>
       <c r="M23" t="n">
         <v>1131.58869045549</v>
@@ -6010,31 +6010,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R23" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T23" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U23" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V23" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W23" t="n">
-        <v>1915.005753073567</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X23" t="n">
-        <v>1495.863289652878</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="Y23" t="n">
-        <v>1087.577165952531</v>
+        <v>2360.327577447737</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I24" t="n">
         <v>81.42328772043086</v>
@@ -6071,13 +6071,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M24" t="n">
-        <v>803.3877032987882</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6089,7 +6089,7 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q24" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R24" t="n">
         <v>1676.651116233592</v>
@@ -6123,52 +6123,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.081764785142</v>
+        <v>616.0817647851425</v>
       </c>
       <c r="C25" t="n">
-        <v>443.520053268367</v>
+        <v>616.0817647851425</v>
       </c>
       <c r="D25" t="n">
-        <v>277.6420604698897</v>
+        <v>450.2037719866652</v>
       </c>
       <c r="E25" t="n">
-        <v>223.9136055871985</v>
+        <v>280.4457682374024</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895474</v>
+        <v>103.7387141991586</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895474</v>
+        <v>103.7387141991586</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>103.7387141991586</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J25" t="n">
-        <v>116.6355901513733</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>488.1941452900671</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L25" t="n">
-        <v>1030.274828676326</v>
+        <v>481.9462364092382</v>
       </c>
       <c r="M25" t="n">
-        <v>1160.879221014856</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N25" t="n">
-        <v>1288.378132818745</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O25" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.320157362631</v>
       </c>
       <c r="P25" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q25" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R25" t="n">
         <v>2360.327577447737</v>
@@ -6177,10 +6177,10 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.080353351143</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="U25" t="n">
-        <v>1839.693721399886</v>
+        <v>1839.693721399887</v>
       </c>
       <c r="V25" t="n">
         <v>1552.738213270317</v>
@@ -6192,7 +6192,7 @@
         <v>1035.320054190021</v>
       </c>
       <c r="Y25" t="n">
-        <v>807.9003835041292</v>
+        <v>807.9003835041296</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1514.885543542141</v>
+        <v>1333.784481314111</v>
       </c>
       <c r="C26" t="n">
-        <v>1076.743070725564</v>
+        <v>1333.784481314111</v>
       </c>
       <c r="D26" t="n">
-        <v>640.8332859000088</v>
+        <v>1333.784481314111</v>
       </c>
       <c r="E26" t="n">
-        <v>640.8332859000088</v>
+        <v>900.0097364724058</v>
       </c>
       <c r="F26" t="n">
-        <v>212.9658563092166</v>
+        <v>472.1423068816136</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895476</v>
+        <v>72.63961556109075</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K26" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6250,28 +6250,28 @@
         <v>2243.650993163597</v>
       </c>
       <c r="R26" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447738</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V26" t="n">
-        <v>2360.327577447738</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W26" t="n">
-        <v>2360.327577447738</v>
+        <v>1333.784481314111</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.185114027049</v>
+        <v>1333.784481314111</v>
       </c>
       <c r="Y26" t="n">
-        <v>1941.185114027049</v>
+        <v>1333.784481314111</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1226.247766280537</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>1119.791305117179</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>1024.701016263733</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E27" t="n">
-        <v>930.5806015906862</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F27" t="n">
-        <v>847.1967632068479</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G27" t="n">
-        <v>762.8256627965047</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>730.883012763101</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
-        <v>765.0997489345767</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
-        <v>858.9930882810439</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>1235.255139210237</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M27" t="n">
-        <v>1487.064164512934</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N27" t="n">
-        <v>1745.537825434254</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1981.990728248785</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P27" t="n">
-        <v>2171.765028813591</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q27" t="n">
-        <v>2298.624123021825</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R27" t="n">
-        <v>2360.327577447738</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S27" t="n">
-        <v>2315.706546847472</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T27" t="n">
-        <v>2189.614991723125</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U27" t="n">
-        <v>2013.345154547006</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V27" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>1474.037446581079</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>1347.5516673603</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>471.6552262893779</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C28" t="n">
-        <v>299.0935147726029</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D28" t="n">
-        <v>299.0935147726029</v>
+        <v>471.655226289377</v>
       </c>
       <c r="E28" t="n">
-        <v>299.0935147726029</v>
+        <v>301.8972225401143</v>
       </c>
       <c r="F28" t="n">
-        <v>122.3864607343591</v>
+        <v>125.1901685018705</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895476</v>
+        <v>125.1901685018705</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>465.6045913582047</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>1007.685274744464</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M28" t="n">
-        <v>1138.289667082993</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N28" t="n">
-        <v>1708.047382044527</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O28" t="n">
-        <v>1825.813263392289</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540315</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R28" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2215.901038951973</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T28" t="n">
-        <v>1973.653814855379</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U28" t="n">
-        <v>1695.267182904122</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V28" t="n">
-        <v>1408.311674774553</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W28" t="n">
-        <v>1136.285270360844</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X28" t="n">
-        <v>890.8935156942568</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.4738450083651</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1782.900983623584</v>
+        <v>1318.626460527759</v>
       </c>
       <c r="C29" t="n">
-        <v>1344.758510807007</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="D29" t="n">
-        <v>908.8487259814518</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E29" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895475</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435809</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228019</v>
+        <v>512.324927422802</v>
       </c>
       <c r="L29" t="n">
         <v>805.4408022867027</v>
@@ -6484,31 +6484,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W29" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X29" t="n">
-        <v>2360.327577447737</v>
+        <v>1641.648052763359</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.200554108492</v>
+        <v>1318.626460527759</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I30" t="n">
         <v>81.42328772043086</v>
       </c>
       <c r="J30" t="n">
-        <v>175.3166270668975</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M30" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P30" t="n">
         <v>1488.088567599445</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.291841223631</v>
+        <v>758.6107344189465</v>
       </c>
       <c r="C31" t="n">
-        <v>919.7301297068562</v>
+        <v>758.6107344189465</v>
       </c>
       <c r="D31" t="n">
-        <v>753.852136908379</v>
+        <v>592.7327416204693</v>
       </c>
       <c r="E31" t="n">
-        <v>584.0941331591162</v>
+        <v>422.9747378712065</v>
       </c>
       <c r="F31" t="n">
-        <v>407.3870791208724</v>
+        <v>246.2676838329627</v>
       </c>
       <c r="G31" t="n">
         <v>242.6458987333908</v>
@@ -6618,31 +6618,31 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>358.0754347909402</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092382</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.320157362631</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
         <v>2360.327577447737</v>
@@ -6654,19 +6654,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1686.698306725809</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W31" t="n">
-        <v>1686.698306725809</v>
+        <v>1423.240778490413</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.53013062851</v>
+        <v>1177.849023823826</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.110459942618</v>
+        <v>950.4293531379337</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1889.485634438364</v>
+        <v>1893.561637177627</v>
       </c>
       <c r="C32" t="n">
-        <v>1451.343161621787</v>
+        <v>1455.41916436105</v>
       </c>
       <c r="D32" t="n">
-        <v>1015.433376796232</v>
+        <v>1019.509379535495</v>
       </c>
       <c r="E32" t="n">
-        <v>581.6586319545268</v>
+        <v>585.7346346937898</v>
       </c>
       <c r="F32" t="n">
-        <v>153.7912023637345</v>
+        <v>157.8672051029975</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895475</v>
+        <v>157.8672051029975</v>
       </c>
       <c r="H32" t="n">
         <v>47.20655154895475</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867029</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T32" t="n">
-        <v>2148.55632591685</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U32" t="n">
-        <v>1889.485634438364</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="V32" t="n">
-        <v>1889.485634438364</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="W32" t="n">
-        <v>1889.485634438364</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="X32" t="n">
-        <v>1889.485634438364</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="Y32" t="n">
-        <v>1889.485634438364</v>
+        <v>2319.861207662535</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P33" t="n">
         <v>1488.088567599445</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.291841223631</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C34" t="n">
-        <v>919.7301297068562</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>211.9477319364364</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364364</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895475</v>
       </c>
       <c r="J34" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545215</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L34" t="n">
-        <v>756.0122647025506</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M34" t="n">
-        <v>1340.193340120866</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N34" t="n">
-        <v>1467.692251924755</v>
+        <v>1288.378132818746</v>
       </c>
       <c r="O34" t="n">
-        <v>2005.127382498298</v>
+        <v>1825.813263392289</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.85648477097</v>
@@ -6888,22 +6888,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T34" t="n">
-        <v>2043.877393424667</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U34" t="n">
-        <v>2043.877393424667</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V34" t="n">
-        <v>1756.921885295098</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W34" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.53013062851</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.110459942618</v>
+        <v>908.8655996749517</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2052.622535079674</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C35" t="n">
-        <v>1614.480062263097</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D35" t="n">
-        <v>1178.570277437541</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>744.7955325958366</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J35" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K35" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
@@ -6958,31 +6958,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2311.693226558159</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U35" t="n">
-        <v>2052.622535079674</v>
+        <v>2179.344204992262</v>
       </c>
       <c r="V35" t="n">
-        <v>2052.622535079674</v>
+        <v>2179.344204992262</v>
       </c>
       <c r="W35" t="n">
-        <v>2052.622535079674</v>
+        <v>2179.344204992262</v>
       </c>
       <c r="X35" t="n">
-        <v>2052.622535079674</v>
+        <v>2179.344204992262</v>
       </c>
       <c r="Y35" t="n">
-        <v>2052.622535079674</v>
+        <v>1771.058081291915</v>
       </c>
     </row>
     <row r="36">
@@ -6998,34 +6998,34 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
         <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
-        <v>175.3166270668975</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.0817647851425</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="C37" t="n">
-        <v>443.5200532683674</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="D37" t="n">
-        <v>443.5200532683674</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="E37" t="n">
-        <v>273.7620495191047</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F37" t="n">
-        <v>97.05499548086087</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895475</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545215</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.331138940781</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M37" t="n">
-        <v>1236.93553127931</v>
+        <v>997.5438780199987</v>
       </c>
       <c r="N37" t="n">
-        <v>1364.4344430832</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527957</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675982</v>
+        <v>2205.505779732759</v>
       </c>
       <c r="Q37" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351144</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1839.693721399887</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041296</v>
+        <v>743.0230756686125</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1324.558407907194</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C38" t="n">
-        <v>1324.558407907194</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
         <v>908.8487259814518</v>
@@ -7162,22 +7162,22 @@
         <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
         <v>805.4408022867025</v>
@@ -7195,31 +7195,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.55632591685</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>2148.55632591685</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V38" t="n">
-        <v>2148.55632591685</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W38" t="n">
-        <v>1743.700871327883</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X38" t="n">
-        <v>1324.558407907194</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y38" t="n">
-        <v>1324.558407907194</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="39">
@@ -7247,28 +7247,28 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043032</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
-        <v>175.3166270668975</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
         <v>1488.088567599445</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>471.655226289377</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C40" t="n">
-        <v>471.655226289377</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D40" t="n">
-        <v>471.655226289377</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E40" t="n">
-        <v>471.655226289377</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F40" t="n">
         <v>407.3870791208724</v>
@@ -7329,31 +7329,31 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>202.9123158186961</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092384</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789087</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.320157362631</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P40" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
         <v>2360.327577447737</v>
@@ -7371,13 +7371,13 @@
         <v>1408.311674774552</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1284.110459942618</v>
       </c>
       <c r="X40" t="n">
-        <v>890.8935156942559</v>
+        <v>1284.110459942618</v>
       </c>
       <c r="Y40" t="n">
-        <v>663.4738450083642</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1785.939375850676</v>
+        <v>747.4131388869995</v>
       </c>
       <c r="C41" t="n">
-        <v>1347.796903034099</v>
+        <v>747.4131388869995</v>
       </c>
       <c r="D41" t="n">
-        <v>911.8871182085436</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E41" t="n">
-        <v>478.1123733668388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F41" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G41" t="n">
         <v>47.20655154895474</v>
@@ -7408,19 +7408,19 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L41" t="n">
         <v>805.4408022867023</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
@@ -7441,22 +7441,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U41" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V41" t="n">
-        <v>1785.939375850676</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W41" t="n">
-        <v>1785.939375850676</v>
+        <v>1592.855172792597</v>
       </c>
       <c r="X41" t="n">
-        <v>1785.939375850676</v>
+        <v>1173.712709371907</v>
       </c>
       <c r="Y41" t="n">
-        <v>1785.939375850676</v>
+        <v>1173.712709371907</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
-        <v>175.3166270668975</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
         <v>1488.088567599445</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>585.2309455701119</v>
+        <v>663.4738450083642</v>
       </c>
       <c r="C43" t="n">
-        <v>585.2309455701119</v>
+        <v>663.4738450083642</v>
       </c>
       <c r="D43" t="n">
-        <v>419.3529527716346</v>
+        <v>497.5958522098869</v>
       </c>
       <c r="E43" t="n">
-        <v>419.3529527716346</v>
+        <v>497.5958522098869</v>
       </c>
       <c r="F43" t="n">
-        <v>242.6458987333908</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G43" t="n">
         <v>242.6458987333908</v>
@@ -7569,25 +7569,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>116.6355901513737</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545215</v>
+        <v>488.1941452900674</v>
       </c>
       <c r="L43" t="n">
-        <v>688.1212571728196</v>
+        <v>1030.274828676326</v>
       </c>
       <c r="M43" t="n">
-        <v>818.725649511349</v>
+        <v>1160.879221014856</v>
       </c>
       <c r="N43" t="n">
-        <v>1120.185357954413</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527957</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>755.070575821621</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C44" t="n">
-        <v>316.9281030050443</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
-        <v>316.9281030050443</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>316.9281030050443</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435814</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228024</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867032</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431968</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973261</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.06979815253</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447738</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2148.55632591685</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2148.55632591685</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V44" t="n">
-        <v>2148.55632591685</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W44" t="n">
-        <v>2008.798733427564</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X44" t="n">
-        <v>1589.656270006875</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y44" t="n">
-        <v>1181.370146306529</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="45">
@@ -7721,28 +7721,28 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043088</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3166270668975</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P45" t="n">
         <v>1488.088567599445</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>750.0418582406348</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="C46" t="n">
-        <v>577.4801467238598</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="D46" t="n">
-        <v>411.6021539253825</v>
+        <v>725.0155228957786</v>
       </c>
       <c r="E46" t="n">
-        <v>407.3870791208724</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F46" t="n">
         <v>407.3870791208724</v>
@@ -7803,55 +7803,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>430.2377900463804</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L46" t="n">
-        <v>554.1085916646783</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M46" t="n">
-        <v>1138.289667082993</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N46" t="n">
-        <v>1708.047382044527</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O46" t="n">
-        <v>1825.813263392289</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540315</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q46" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951973</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855379</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1973.653814855379</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1686.69830672581</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W46" t="n">
-        <v>1414.671902312101</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>1169.280147645514</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y46" t="n">
-        <v>941.860476959622</v>
+        <v>890.8935156942559</v>
       </c>
     </row>
   </sheetData>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>99.93061208465421</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,10 +8540,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>46.44901925259015</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>66.35787900959554</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>39.20322876385131</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.33766198190375</v>
+        <v>21.08034379675437</v>
       </c>
       <c r="L10" t="n">
-        <v>11.38814337090577</v>
+        <v>93.8155107803826</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>93.07541273182954</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>95.06085321698737</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340657</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M13" t="n">
-        <v>177.1920849464593</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9087,13 +9087,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>69.27619576520598</v>
+        <v>105.0002374943213</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>192.4544649334027</v>
+        <v>105.0002374943213</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>156.7304232042871</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>10.62967161639943</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>156.730423204287</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>458.1582657371572</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -10032,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>177.8915054291099</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>69.2761957652063</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>68.57677528255658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>10.62967161640017</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>156.7304232042872</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11217,19 +11217,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>10.62967161639979</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>175.7179764032065</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
@@ -11238,7 +11238,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>142.1674636999944</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371572</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23023,16 +23023,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>314.6771375459505</v>
       </c>
       <c r="D8" t="n">
-        <v>312.4667764348387</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>310.3530868508265</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>392.880900007053</v>
       </c>
       <c r="G8" t="n">
         <v>397.0049566522158</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796771</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.2079358176206</v>
       </c>
       <c r="U8" t="n">
-        <v>256.599767943293</v>
+        <v>137.5158574008326</v>
       </c>
       <c r="V8" t="n">
-        <v>254.1016721597119</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>281.7229895006158</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>285.1193519208827</v>
       </c>
     </row>
     <row r="9">
@@ -23108,16 +23108,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>15.41647735450796</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.36037526809192</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,22 +23150,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>59.05530966656966</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5598441976481</v>
+        <v>55.47593365518769</v>
       </c>
       <c r="V9" t="n">
-        <v>78.0424322161594</v>
+        <v>78.04243221616018</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>64.38561618167746</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>48.42965299770968</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -23184,22 +23184,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>45.13530232803129</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>70.0508750920615</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>44.68149179608037</v>
+        <v>163.7654023385416</v>
       </c>
       <c r="H10" t="n">
-        <v>17.90814412952767</v>
+        <v>17.90814412952845</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742789</v>
+        <v>82.66219243742792</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616404</v>
+        <v>13.56162857616409</v>
       </c>
       <c r="S10" t="n">
-        <v>154.6870177308997</v>
+        <v>35.60310718843924</v>
       </c>
       <c r="T10" t="n">
         <v>242.6944597176218</v>
@@ -23244,10 +23244,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>138.0487287141225</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>106.0615634365723</v>
       </c>
     </row>
     <row r="11">
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>208.2949476639722</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.234472384901</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>175.7337145695615</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>34.75250110090059</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>217.9904627580848</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>90.87967246293482</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>114.8692533779063</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>99.00273129754012</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -23794,13 +23794,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>69.59641759923562</v>
+        <v>82.31069917263017</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>93.63231361822163</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>114.5993510054559</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811443</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>120.3970271724581</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>237.9380272070636</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24025,19 +24025,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.28436759624736</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>230.8524912134877</v>
+        <v>245.8919113014644</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
@@ -24268,13 +24268,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811442</v>
+        <v>6.497492674412584</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>231.4059526946584</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>241.845602569514</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>88.6656584900565</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144772</v>
+        <v>53.81683923109067</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24745,10 +24745,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>254.5875093574899</v>
+        <v>84.41188615009924</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>159.5082013350305</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>69.52134278359608</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>289.9888601006857</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>157.4702889230263</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>3.067474454537034</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>69.52134278359615</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>161.5055316348967</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>117.3681519201317</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25222,7 +25222,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>113.7438090910197</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>78.75373835364579</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>19.9981018708155</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>146.9259375451994</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>111.3145178010417</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>146.3469376859574</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>167.7831629059234</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>392.4996561024968</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.4399620879275</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -25797,10 +25797,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>85.63329813973701</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25870,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>146.9259375451994</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>262.4468834786841</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>163.8874996553051</v>
+        <v>28.54824787247426</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>88204.87887015876</v>
+        <v>88204.87887015815</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>390883.8788895565</v>
+        <v>390883.8788895566</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>390883.8788895566</v>
+        <v>390883.8788895565</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>390883.8788895567</v>
+        <v>390883.8788895566</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>390883.8788895567</v>
+        <v>390883.8788895566</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>390883.8788895566</v>
+        <v>390883.8788895565</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>390883.8788895567</v>
+        <v>390883.8788895566</v>
       </c>
     </row>
   </sheetData>
@@ -26319,16 +26319,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>38163.2907864697</v>
+        <v>38163.29078646944</v>
       </c>
       <c r="E2" t="n">
+        <v>173027.3284308991</v>
+      </c>
+      <c r="F2" t="n">
         <v>173027.328430899</v>
       </c>
-      <c r="F2" t="n">
-        <v>173027.3284308991</v>
-      </c>
       <c r="G2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="H2" t="n">
         <v>173027.3284308991</v>
@@ -26337,7 +26337,7 @@
         <v>173027.3284308991</v>
       </c>
       <c r="J2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="K2" t="n">
         <v>173027.3284308991</v>
@@ -26346,16 +26346,16 @@
         <v>173027.3284308991</v>
       </c>
       <c r="M2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="N2" t="n">
         <v>173027.3284308991</v>
       </c>
       <c r="O2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="P2" t="n">
-        <v>173027.3284308992</v>
+        <v>173027.328430899</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730582</v>
+        <v>117708.4675730574</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180438</v>
+        <v>439858.2450180447</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310206</v>
+        <v>30139.06600310189</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597479</v>
+        <v>117374.5815597481</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5042.780947681918</v>
+        <v>5042.780947681885</v>
       </c>
       <c r="E4" t="n">
         <v>13837.4771430886</v>
@@ -26441,7 +26441,7 @@
         <v>13837.4771430886</v>
       </c>
       <c r="J4" t="n">
-        <v>13837.47714308861</v>
+        <v>13837.4771430886</v>
       </c>
       <c r="K4" t="n">
         <v>13837.4771430886</v>
@@ -26475,43 +26475,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239239</v>
+        <v>42922.56227239233</v>
       </c>
       <c r="E5" t="n">
+        <v>46051.08120963782</v>
+      </c>
+      <c r="F5" t="n">
         <v>46051.08120963781</v>
       </c>
-      <c r="F5" t="n">
-        <v>46051.08120963782</v>
-      </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
+        <v>46051.08120963783</v>
+      </c>
+      <c r="J5" t="n">
         <v>46051.08120963782</v>
       </c>
-      <c r="J5" t="n">
-        <v>46051.08120963784</v>
-      </c>
       <c r="K5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="L5" t="n">
         <v>46051.08120963783</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963784</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-127510.5200066628</v>
+        <v>-128677.4188028134</v>
       </c>
       <c r="E6" t="n">
-        <v>-326719.4749398711</v>
+        <v>-327273.3553830939</v>
       </c>
       <c r="F6" t="n">
-        <v>113138.7700781727</v>
+        <v>112584.8896349507</v>
       </c>
       <c r="G6" t="n">
-        <v>113138.7700781727</v>
+        <v>112584.8896349507</v>
       </c>
       <c r="H6" t="n">
-        <v>113138.7700781727</v>
+        <v>112584.8896349507</v>
       </c>
       <c r="I6" t="n">
-        <v>113138.7700781727</v>
+        <v>112584.8896349507</v>
       </c>
       <c r="J6" t="n">
-        <v>113138.7700781727</v>
+        <v>112584.8896349507</v>
       </c>
       <c r="K6" t="n">
-        <v>113138.7700781726</v>
+        <v>112584.8896349507</v>
       </c>
       <c r="L6" t="n">
-        <v>82999.70407507062</v>
+        <v>82445.82363184883</v>
       </c>
       <c r="M6" t="n">
-        <v>-4235.811481575249</v>
+        <v>-4789.691924797438</v>
       </c>
       <c r="N6" t="n">
-        <v>113138.7700781726</v>
+        <v>112584.8896349507</v>
       </c>
       <c r="O6" t="n">
-        <v>113138.7700781727</v>
+        <v>112584.8896349507</v>
       </c>
       <c r="P6" t="n">
-        <v>113138.7700781727</v>
+        <v>112584.8896349507</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.250482174805</v>
+        <v>94.25048217480439</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26795,43 +26795,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424612</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="E4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="F4" t="n">
         <v>590.0818943619341</v>
       </c>
-      <c r="F4" t="n">
-        <v>590.0818943619342</v>
-      </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
+        <v>590.0818943619344</v>
+      </c>
+      <c r="J4" t="n">
         <v>590.0818943619342</v>
       </c>
-      <c r="J4" t="n">
-        <v>590.0818943619345</v>
-      </c>
       <c r="K4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="L4" t="n">
         <v>590.0818943619344</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619345</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480501</v>
+        <v>94.2504821748044</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184161</v>
+        <v>372.4514459184168</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424612</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194729</v>
+        <v>470.9979838194738</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424612</v>
+        <v>119.0839105424606</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194729</v>
+        <v>470.9979838194737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424612</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194729</v>
+        <v>470.9979838194738</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529846</v>
+        <v>0.3788964107529822</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866624005</v>
+        <v>3.88037286662398</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555446</v>
+        <v>14.60740387555436</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214616</v>
+        <v>32.15835924214595</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932001</v>
+        <v>48.19704430931969</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990168</v>
+        <v>59.79269533990129</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463006</v>
+        <v>66.53089438462963</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168199</v>
+        <v>67.60743381168155</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725699</v>
+        <v>63.83978262725658</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679267</v>
+        <v>54.48577748679232</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.9165497767014</v>
+        <v>40.91654977670113</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196219</v>
+        <v>23.80085166196204</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033647</v>
+        <v>8.63410196003359</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071191</v>
+        <v>1.65861903807118</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023877</v>
+        <v>0.03031171286023857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250523</v>
+        <v>0.202727452225051</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857742</v>
+        <v>1.957920393857729</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888862</v>
+        <v>6.979870613888817</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780637</v>
+        <v>19.15329845780624</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688487</v>
+        <v>32.73603775688466</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211059</v>
+        <v>44.0176426421103</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526872</v>
+        <v>51.36651278526838</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286568</v>
+        <v>52.72603153286533</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619478</v>
+        <v>48.23401798619447</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006283</v>
+        <v>38.71205182006258</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542948</v>
+        <v>25.87798144542931</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779755</v>
+        <v>12.58688514779747</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531122</v>
+        <v>3.765573509531098</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457147</v>
+        <v>0.8171338973457095</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322713</v>
+        <v>0.01333733238322704</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889926</v>
+        <v>0.1699598858889915</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540317</v>
+        <v>1.511097894540307</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643524</v>
+        <v>5.111157295643491</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235178</v>
+        <v>12.0161639323517</v>
       </c>
       <c r="K10" t="n">
-        <v>19.7462485605575</v>
+        <v>19.74624856055737</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207805</v>
+        <v>25.26839976207789</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803545</v>
+        <v>26.64198465803527</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063104</v>
+        <v>26.00849781063087</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547325</v>
+        <v>24.0230573254731</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333779</v>
+        <v>20.55587565333765</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839555</v>
+        <v>14.23182280839546</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517793</v>
+        <v>7.642014505517744</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083624</v>
+        <v>2.961937284083605</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075137</v>
+        <v>0.726192239707509</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308699</v>
+        <v>0.009270539230308638</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -32010,7 +32010,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
@@ -32025,10 +32025,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,10 +32071,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -32083,7 +32083,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -32101,16 +32101,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998885</v>
@@ -32177,10 +32177,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
         <v>14.66668190417549</v>
@@ -32189,7 +32189,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32703,13 +32703,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
@@ -32718,10 +32718,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
@@ -32736,10 +32736,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917233</v>
@@ -32812,16 +32812,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
         <v>128.7867795998885</v>
@@ -32888,19 +32888,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,13 +32940,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H26" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
@@ -32955,10 +32955,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
@@ -32973,10 +32973,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
         <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917233</v>
@@ -33049,16 +33049,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998885</v>
@@ -33125,19 +33125,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,13 +33177,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H29" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
@@ -33192,10 +33192,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548411</v>
@@ -33210,10 +33210,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562285</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917233</v>
@@ -33286,16 +33286,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998885</v>
@@ -33362,19 +33362,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,13 +33414,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
@@ -33429,10 +33429,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -33447,10 +33447,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415856</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917233</v>
@@ -33523,16 +33523,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998885</v>
@@ -33599,19 +33599,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,13 +33651,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -33666,10 +33666,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -33684,10 +33684,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917233</v>
@@ -33760,16 +33760,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -33836,19 +33836,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,13 +33888,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -33903,10 +33903,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -33921,10 +33921,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916724</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917233</v>
@@ -33997,16 +33997,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998885</v>
@@ -34073,19 +34073,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,13 +34125,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
@@ -34140,16 +34140,16 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34158,10 +34158,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562285</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917233</v>
@@ -34234,16 +34234,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998885</v>
@@ -34310,19 +34310,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,13 +34362,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
@@ -34377,10 +34377,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
@@ -34395,10 +34395,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562284</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917233</v>
@@ -34471,16 +34471,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998885</v>
@@ -34547,19 +34547,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642306</v>
+        <v>14.19478239642296</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214616</v>
+        <v>32.15835924214595</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932001</v>
+        <v>48.19704430931969</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990168</v>
+        <v>59.79269533990134</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463007</v>
+        <v>66.53089438462965</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168197</v>
+        <v>67.60743381168155</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725697</v>
+        <v>63.83978262725657</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679264</v>
+        <v>54.4857774867923</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.9165497767014</v>
+        <v>40.91654977670112</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196221</v>
+        <v>23.80085166196204</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>33.30681320020967</v>
+        <v>6.979870613888817</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780636</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688487</v>
+        <v>32.73603775688466</v>
       </c>
       <c r="L9" t="n">
-        <v>44.0176426421106</v>
+        <v>44.0176426421103</v>
       </c>
       <c r="M9" t="n">
-        <v>97.81553203785887</v>
+        <v>51.36651278526838</v>
       </c>
       <c r="N9" t="n">
-        <v>119.0839105424612</v>
+        <v>52.72603153286536</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619477</v>
+        <v>48.23401798619449</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006281</v>
+        <v>38.71205182006258</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.8779814454295</v>
+        <v>25.87798144542933</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779755</v>
+        <v>51.7901139116488</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.47039137143244</v>
+        <v>12.0161639323517</v>
       </c>
       <c r="K10" t="n">
-        <v>119.0839105424613</v>
+        <v>40.82659235731175</v>
       </c>
       <c r="L10" t="n">
-        <v>36.65654313298381</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803543</v>
+        <v>26.64198465803528</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063101</v>
+        <v>119.0839105424604</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547325</v>
+        <v>119.0839105424604</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333781</v>
+        <v>20.55587565333764</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.0839105424612</v>
+        <v>14.23182280839546</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35427,13 +35427,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.8551356405465</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811317</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35512,7 +35512,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M13" t="n">
-        <v>309.1157135712365</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35655,7 +35655,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>167.0540751263759</v>
+        <v>202.7781168554911</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>575.5128433954892</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -35889,10 +35889,10 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>324.3780935581799</v>
+        <v>236.9238661190984</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
@@ -36126,7 +36126,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36138,7 +36138,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>281.8524450409517</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561041</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,19 +36354,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>70.13034202264504</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447062</v>
+        <v>281.8524450409516</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561045</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,10 +36591,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
@@ -36603,7 +36603,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36612,13 +36612,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>117.8551356405465</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916753</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36694,10 +36694,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>275.6693847902798</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447062</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247774</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,25 +36828,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562285</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -36992,28 +36992,28 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K31" t="n">
-        <v>167.0540751263762</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619344</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561043</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,19 +37065,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766678</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37147,25 +37147,25 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415856</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>193.6987971192212</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619344</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>139.4164512162886</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37314,7 +37314,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562285</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
@@ -37466,28 +37466,28 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>296.1475206512698</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.3636829242305</v>
+        <v>139.7481869072826</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,22 +37539,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916724</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>281.8524450409518</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619344</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>139.4164512162881</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,19 +37776,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37797,7 +37797,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37858,25 +37858,25 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562285</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>70.13034202264538</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572666</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366647</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>304.5047560030951</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561045</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,19 +38013,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125712</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38095,25 +38095,25 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562284</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>239.9453430611643</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619345</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
